--- a/app/data/static/templates/constructor_butter.xlsx
+++ b/app/data/static/templates/constructor_butter.xlsx
@@ -590,10 +590,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ229"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W19" activeCellId="0" sqref="W19"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -720,8 +720,14 @@
       </c>
       <c r="C4" s="17"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="19" t="str">
+        <f aca="true">IF(H4="","",(INDIRECT("L" &amp; ROW() - 1) - L4))</f>
+        <v/>
+      </c>
+      <c r="G4" s="17" t="str">
+        <f aca="true">IF(H4 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <v/>
+      </c>
       <c r="I4" s="20" t="n">
         <f aca="true">IF(H4 = "-", -INDIRECT("C" &amp; ROW() - 1),E4)</f>
         <v>0</v>
@@ -1744,7 +1750,7 @@
         <f aca="false">IF(D28="","",VLOOKUP(D28, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
         <v/>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="0"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19" t="str">
         <f aca="true">IF(H28="","",(INDIRECT("L" &amp; ROW() - 1) - L28))</f>
@@ -3737,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="16" t="n">
-        <f aca="true">IF(H74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I74)))), 0)</f>
+        <f aca="true">IF(H74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I74)))),0)</f>
         <v>0</v>
       </c>
       <c r="K74" s="16" t="n">
@@ -4855,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="16" t="n">
-        <f aca="true">IF(H100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(I100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(I100)))),0)</f>
+        <f aca="true">IF(H100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I100)))), 0)</f>
         <v>0</v>
       </c>
       <c r="K100" s="16" t="n">
@@ -5832,28 +5838,12 @@
       <c r="C123" s="0"/>
       <c r="E123" s="18"/>
       <c r="F123" s="19" t="str">
-        <f aca="true">IF(H123="","",(INDIRECT("L" &amp; ROW() - 1) - L123))</f>
+        <f aca="true">IF(H123="","",(INDIRECT("N" &amp; ROW() - 1) - L123))</f>
         <v/>
       </c>
       <c r="G123" s="17" t="str">
-        <f aca="true">IF(H123 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
-        <v/>
-      </c>
-      <c r="I123" s="20" t="n">
-        <f aca="true">IF(H123 = "-", -INDIRECT("C" &amp; ROW() - 1),E123)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="16" t="n">
-        <f aca="true">IF(H123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(I123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(I123)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K123" s="16" t="n">
-        <f aca="false">IF(H123="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="16" t="n">
-        <f aca="true">IF(J123 = 0, INDIRECT("L" &amp; ROW() - 1), J123)</f>
-        <v>0</v>
+        <f aca="true">IF(H123 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
       </c>
       <c r="P123" s="22" t="str">
         <f aca="true">IF(O123 = "", "", O123 / INDIRECT("D" &amp; ROW() - 1) )</f>
@@ -6704,32 +6694,25 @@
       <c r="AMI154" s="0"/>
       <c r="AMJ154" s="0"/>
     </row>
-    <row r="155" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="17" t="str">
-        <f aca="false">IF(D155="","",VLOOKUP(D155, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C155" s="0"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="23"/>
       <c r="E155" s="18"/>
-      <c r="F155" s="19" t="str">
+      <c r="F155" s="24" t="str">
         <f aca="true">IF(H155="","",(INDIRECT("N" &amp; ROW() - 1) - L155))</f>
         <v/>
       </c>
-      <c r="G155" s="17" t="str">
+      <c r="G155" s="25" t="str">
         <f aca="true">IF(H155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="P155" s="22" t="str">
+      <c r="P155" s="26" t="str">
         <f aca="true">IF(O155 = "", "", O155 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="Q155" s="22" t="str">
+      <c r="Q155" s="26" t="str">
         <f aca="true">IF(H155="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
-      <c r="AMH155" s="0"/>
-      <c r="AMI155" s="0"/>
-      <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="23"/>
@@ -6918,10 +6901,6 @@
         <f aca="true">IF(H165="","",(INDIRECT("N" &amp; ROW() - 1) - L165))</f>
         <v/>
       </c>
-      <c r="G165" s="25" t="str">
-        <f aca="true">IF(H165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
-        <v/>
-      </c>
       <c r="P165" s="26" t="str">
         <f aca="true">IF(O165 = "", "", O165 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
@@ -7226,10 +7205,7 @@
         <f aca="true">IF(H184="","",(INDIRECT("N" &amp; ROW() - 1) - L184))</f>
         <v/>
       </c>
-      <c r="P184" s="26" t="str">
-        <f aca="true">IF(O184 = "", "", O184 / INDIRECT("D" &amp; ROW() - 1) )</f>
-        <v/>
-      </c>
+      <c r="P184" s="26"/>
       <c r="Q184" s="26" t="str">
         <f aca="true">IF(H184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
@@ -7394,10 +7370,7 @@
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="23"/>
       <c r="E197" s="18"/>
-      <c r="F197" s="24" t="str">
-        <f aca="true">IF(H197="","",(INDIRECT("N" &amp; ROW() - 1) - L197))</f>
-        <v/>
-      </c>
+      <c r="F197" s="27"/>
       <c r="P197" s="26"/>
       <c r="Q197" s="26" t="str">
         <f aca="true">IF(H197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -7517,7 +7490,6 @@
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="23"/>
       <c r="E209" s="18"/>
-      <c r="F209" s="27"/>
       <c r="P209" s="26"/>
       <c r="Q209" s="26" t="str">
         <f aca="true">IF(H209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
@@ -7695,15 +7667,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="23"/>
-      <c r="E229" s="18"/>
-      <c r="P229" s="26"/>
-      <c r="Q229" s="26" t="str">
-        <f aca="true">IF(H229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
-        <v/>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
@@ -7719,15 +7683,15 @@
   </mergeCells>
   <conditionalFormatting sqref="F2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>SUMIF(F3:F123,"&gt;0")-SUMIF(F3:F123,"&lt;0") &gt; 1</formula>
+      <formula>SUMIF(F3:F122,"&gt;0")-SUMIF(F3:F122,"&lt;0") &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F197">
+  <conditionalFormatting sqref="F3:F196">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(IF(G3="",0, F3)  &gt;= - 0.05* IF(G3="",0,G3), IF(G3="",0, F3) &lt; 0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F197">
+  <conditionalFormatting sqref="F3:F196">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(G3="",0, F3)  &lt; - 0.05* IF(G3="",0,G3)</formula>
     </cfRule>
@@ -7741,7 +7705,7 @@
       <formula>IF(G3="",0,F3)  &gt; 0.05* IF(G3="",0,G3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F197">
+  <conditionalFormatting sqref="F3:F196">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF(G3="",0, F3)  &gt; 0.05* IF(G3="",0,G3)</formula>
     </cfRule>
@@ -7750,11 +7714,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D100" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D99" type="list">
       <formula1>'SKU Масло'!$A$1:$A$50</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B155" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B154" type="list">
       <formula1>'SKU Масло'!$B$1:$B$50</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/app/data/static/templates/constructor_butter.xlsx
+++ b/app/data/static/templates/constructor_butter.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/templates/constructor_butter.xlsx
+++ b/app/data/static/templates/constructor_butter.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7740,8 +7740,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
